--- a/Prueba R.xlsx
+++ b/Prueba R.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -60,13 +60,19 @@
     <t>GH</t>
   </si>
   <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>EW</t>
-  </si>
-  <si>
     <t>QW</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>SW</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A7:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -519,26 +527,26 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Prueba R.xlsx
+++ b/Prueba R.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>A</t>
   </si>
@@ -45,18 +45,6 @@
     <t>NOMBRE</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>GH</t>
   </si>
   <si>
@@ -73,6 +61,9 @@
   </si>
   <si>
     <t>SW</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -461,10 +452,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A7:XFD9"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -490,63 +481,71 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Prueba R.xlsx
+++ b/Prueba R.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario Delgadillo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario Delgadillo\Documents\Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,50 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CVE</t>
-  </si>
-  <si>
-    <t>CUOTA</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>GH</t>
-  </si>
-  <si>
-    <t>QW</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,174 +336,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>